--- a/Login.xlsx
+++ b/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushi\OneDrive - Amity University\Desktop\Java Wipro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8308A023-DA2B-4A47-9B7C-DA1592B9E906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8704281-D398-4AB8-84F3-C996717A238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CD09F70-16F6-4C76-A3EC-A7E0C7F45BB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
   <si>
     <t xml:space="preserve">TestCase ID </t>
   </si>
@@ -339,13 +339,513 @@
   </si>
   <si>
     <t>"Thank You" message is displayed confirming the order completion</t>
+  </si>
+  <si>
+    <t>DEMO - 03</t>
+  </si>
+  <si>
+    <t>https://globalsqa.com/angularJs-protractor/BankingProject/#/login</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>Login with valid credentials</t>
+  </si>
+  <si>
+    <t>Enter valid username &amp; password</t>
+  </si>
+  <si>
+    <t>Username: adminPassword: demo</t>
+  </si>
+  <si>
+    <t>User lands on account overview page</t>
+  </si>
+  <si>
+    <t>User landed on account overview page successfully</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Enter invalid username/password</t>
+  </si>
+  <si>
+    <t>Username: wrongPassword: wrong</t>
+  </si>
+  <si>
+    <t>Error message “Invalid login” shown</t>
+  </si>
+  <si>
+    <t>Error message “Invalid login” displayed as expected</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>Logout functionality</t>
+  </si>
+  <si>
+    <t>Click Logout after login</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Redirected back to login page</t>
+  </si>
+  <si>
+    <t>User redirected to login page successfully</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
+    <t>Check account balance after login</t>
+  </si>
+  <si>
+    <t>Account Overview</t>
+  </si>
+  <si>
+    <t>Login → View Balance</t>
+  </si>
+  <si>
+    <t>Balance is visible and accurate</t>
+  </si>
+  <si>
+    <t>Balance displayed correctly</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>Transfer funds with valid data</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>Login → Navigate to Transfer → Enter details → Submit</t>
+  </si>
+  <si>
+    <t>Amount 100, Recipient valid</t>
+  </si>
+  <si>
+    <t>Confirmation message is displayed</t>
+  </si>
+  <si>
+    <t>Confirmation message displayed</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>Transfer funds with insufficient funds</t>
+  </si>
+  <si>
+    <t>Enter transfer amount exceeding balance</t>
+  </si>
+  <si>
+    <t>Amount 1,000,000</t>
+  </si>
+  <si>
+    <t>Error: “Insufficient Funds” displayed</t>
+  </si>
+  <si>
+    <t>“Insufficient Funds” error displayed</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>Check transaction history</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Login → Navigate to Transactions</t>
+  </si>
+  <si>
+    <t>List of recent transactions is displayed</t>
+  </si>
+  <si>
+    <t>Recent transactions displayed correctly</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>Session timeout behavior</t>
+  </si>
+  <si>
+    <t>Session Management</t>
+  </si>
+  <si>
+    <t>Stay idle until session expires and then perform an action</t>
+  </si>
+  <si>
+    <t>Session expires and requires login again</t>
+  </si>
+  <si>
+    <t>Session expired, prompted to log in again</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Verify Customer Login with valid selection</t>
+  </si>
+  <si>
+    <t>1. Click “Customer Login” 2. Select a valid customer name from dropdown 3. Click “Login”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harry Potter</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer account page should be displayed</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Verify Customer Login without selecting a name</t>
+  </si>
+  <si>
+    <t>1. Click “Customer Login” 2. Do not select any name 3. Click “Login”</t>
+  </si>
+  <si>
+    <t>No selection</t>
+  </si>
+  <si>
+    <t>Error alert should appear asking to select a name</t>
+  </si>
+  <si>
+    <t>Verify Bank Manager Login button</t>
+  </si>
+  <si>
+    <t>1. Click “Bank Manager Login”</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Manager dashboard should open</t>
+  </si>
+  <si>
+    <t>Verify Logout button for Customer</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>1. Log in as customer 2. Click “Logout”</t>
+  </si>
+  <si>
+    <t>Should return to login page</t>
+  </si>
+  <si>
+    <t>Verify deposit money functionality</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>1. Log in as customer 2. Go to Deposit tab 3. Enter amount and click “Deposit”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amount: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+  </si>
+  <si>
+    <t>Success message should be displayed</t>
+  </si>
+  <si>
+    <t>Verify withdrawal with sufficient balance</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>1. Log in as customer 2. Deposit money 3. Go to Withdraw tab 4. Enter valid amount and click “Withdraw”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amount: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify withdrawal with insufficient balance</t>
+  </si>
+  <si>
+    <t>1. Log in as customer 2. Withdraw more than available balance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amount: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+  </si>
+  <si>
+    <t>Error message should be displayed</t>
+  </si>
+  <si>
+    <t>Verify transactions history is recorded</t>
+  </si>
+  <si>
+    <t>1. Perform deposit and withdraw 2. Go to Transactions tab</t>
+  </si>
+  <si>
+    <t>All transactions should be listed</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>Verify adding new customer in Manager dashboard</t>
+  </si>
+  <si>
+    <t>Add Customer</t>
+  </si>
+  <si>
+    <t>1. Log in as Bank Manager 2. Go to “Add Customer” tab 3. Fill form and click “Add Customer”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Last Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Postcode: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer added confirmation should appear</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>Verify opening account for customer</t>
+  </si>
+  <si>
+    <t>Open Account</t>
+  </si>
+  <si>
+    <t>1. Log in as Bank Manager 2. Go to “Open Account” 3. Select customer and currency 4. Click “Process”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John Doe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Currency: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dollar</t>
+    </r>
+  </si>
+  <si>
+    <t>Account created confirmation should appear</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>Verify searching for customers in Manager dashboard</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>1. Log in as Bank Manager 2. Go to “Customers” tab 3. Search for customer by name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harry</t>
+    </r>
+  </si>
+  <si>
+    <t>Matching records should be displayed</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>Verify deleting a customer from Manager dashboard</t>
+  </si>
+  <si>
+    <t>1. Log in as Bank Manager 2. Search for customer 3. Click Delete</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John Doe</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer should be removed from list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +878,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +906,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -411,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -426,6 +946,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,19 +1295,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB98750-72AC-4725-B24B-E23AF235C540}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1222,7 +1757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
@@ -1233,7 +1768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
@@ -1244,7 +1779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
         <v>86</v>
       </c>
@@ -1255,7 +1790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
@@ -1266,7 +1801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
@@ -1275,6 +1810,522 @@
       </c>
       <c r="G37" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="E39" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E42" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
